--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsha\Desktop\Projects\Artsakh-Gas\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arshak.askaryan\Desktop\GIT\Artsakh-Gas\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView minimized="1" xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -101,18 +101,12 @@
     <t>²ßË³ï³Ýù³ÛÇÝ  Ï³ï³ñÙ³Ý Ñ³ÝÓÝ³ñ³ñ³Ï³ÝÁ ïí»ó</t>
   </si>
   <si>
-    <t>î»Õ³Ù³ëÇ í³ñå»ïª âÇÉÇÝ·³ñÛ³Ý È¨áÝ</t>
-  </si>
-  <si>
     <t>___________________</t>
   </si>
   <si>
     <t>ëïáñ³·ñáõÃÛáõÝ</t>
   </si>
   <si>
-    <t>ö³Ï³Ý³·áñÍ _________________________________________________________</t>
-  </si>
-  <si>
     <t>ëïáñ³·ñáõÃÛáõÝ , ³ÝáõÝ ³½·³ÝáõÝ</t>
   </si>
   <si>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t xml:space="preserve"> ÷-1</t>
+  </si>
+  <si>
+    <t>Փականագործ _________________________________________________________</t>
+  </si>
+  <si>
+    <t>Տեղամասի վարպետ՝ Ռոմա Ավշառյան</t>
   </si>
 </sst>
 </file>
@@ -300,6 +300,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,12 +321,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,36 +333,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,9 +378,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -418,7 +418,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +490,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,97 +688,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="D2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="25" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="22" t="s">
-        <v>34</v>
+      <c r="V4" s="21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="18"/>
       <c r="G5" s="2" t="s">
         <v>5</v>
@@ -793,10 +793,10 @@
         <v>8</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>10</v>
@@ -816,13 +816,13 @@
       <c r="R5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="29"/>
+      <c r="S5" s="28"/>
       <c r="T5" s="18"/>
-      <c r="U5" s="16"/>
+      <c r="U5" s="11"/>
       <c r="V5" s="18"/>
     </row>
     <row r="6" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>1</v>
       </c>
       <c r="B6" s="3">
@@ -831,11 +831,11 @@
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="19">
         <v>43025</v>
@@ -862,22 +862,22 @@
         <v>16</v>
       </c>
       <c r="T6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-    </row>
-    <row r="7" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -888,24 +888,24 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="4"/>
       <c r="T7" s="18"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -920,16 +920,16 @@
       <c r="R8" s="19"/>
       <c r="S8" s="4"/>
       <c r="T8" s="17"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -944,18 +944,18 @@
       <c r="R9" s="20"/>
       <c r="S9" s="4"/>
       <c r="T9" s="18"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -970,16 +970,16 @@
       <c r="R10" s="19"/>
       <c r="S10" s="4"/>
       <c r="T10" s="17"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -994,18 +994,18 @@
       <c r="R11" s="20"/>
       <c r="S11" s="4"/>
       <c r="T11" s="18"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>4</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1020,16 +1020,16 @@
       <c r="R12" s="19"/>
       <c r="S12" s="4"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
     </row>
     <row r="13" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1044,18 +1044,18 @@
       <c r="R13" s="20"/>
       <c r="S13" s="4"/>
       <c r="T13" s="18"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
     </row>
     <row r="14" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>5</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1070,16 +1070,16 @@
       <c r="R14" s="19"/>
       <c r="S14" s="4"/>
       <c r="T14" s="17"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="16"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1094,18 +1094,18 @@
       <c r="R15" s="20"/>
       <c r="S15" s="4"/>
       <c r="T15" s="18"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>6</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1120,16 +1120,16 @@
       <c r="R16" s="19"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1144,18 +1144,18 @@
       <c r="R17" s="20"/>
       <c r="S17" s="4"/>
       <c r="T17" s="18"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
     </row>
     <row r="18" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>7</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -1170,16 +1170,16 @@
       <c r="R18" s="19"/>
       <c r="S18" s="4"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="16"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1194,18 +1194,18 @@
       <c r="R19" s="20"/>
       <c r="S19" s="4"/>
       <c r="T19" s="18"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
     </row>
     <row r="20" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>8</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1220,16 +1220,16 @@
       <c r="R20" s="19"/>
       <c r="S20" s="4"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
     </row>
     <row r="21" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1244,18 +1244,18 @@
       <c r="R21" s="20"/>
       <c r="S21" s="4"/>
       <c r="T21" s="18"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
     </row>
     <row r="22" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>9</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -1270,16 +1270,16 @@
       <c r="R22" s="19"/>
       <c r="S22" s="4"/>
       <c r="T22" s="17"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
     </row>
     <row r="23" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1294,18 +1294,18 @@
       <c r="R23" s="20"/>
       <c r="S23" s="4"/>
       <c r="T23" s="18"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
     </row>
     <row r="24" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>10</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1320,16 +1320,16 @@
       <c r="R24" s="19"/>
       <c r="S24" s="4"/>
       <c r="T24" s="17"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
     </row>
     <row r="25" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="16"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1344,18 +1344,18 @@
       <c r="R25" s="20"/>
       <c r="S25" s="4"/>
       <c r="T25" s="18"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
     </row>
     <row r="26" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="A26" s="29">
         <v>11</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1370,16 +1370,16 @@
       <c r="R26" s="19"/>
       <c r="S26" s="4"/>
       <c r="T26" s="17"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
     </row>
     <row r="27" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="3"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="16"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1394,18 +1394,18 @@
       <c r="R27" s="20"/>
       <c r="S27" s="4"/>
       <c r="T27" s="18"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
     </row>
     <row r="28" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+      <c r="A28" s="29">
         <v>12</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1420,16 +1420,16 @@
       <c r="R28" s="19"/>
       <c r="S28" s="4"/>
       <c r="T28" s="17"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
     </row>
     <row r="29" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="16"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1444,18 +1444,18 @@
       <c r="R29" s="20"/>
       <c r="S29" s="4"/>
       <c r="T29" s="18"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
     </row>
     <row r="30" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
+      <c r="A30" s="29">
         <v>13</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -1470,16 +1470,16 @@
       <c r="R30" s="19"/>
       <c r="S30" s="4"/>
       <c r="T30" s="17"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
     </row>
     <row r="31" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="16"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1494,18 +1494,18 @@
       <c r="R31" s="20"/>
       <c r="S31" s="4"/>
       <c r="T31" s="18"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
     </row>
     <row r="32" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+      <c r="A32" s="29">
         <v>14</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -1520,16 +1520,16 @@
       <c r="R32" s="19"/>
       <c r="S32" s="4"/>
       <c r="T32" s="17"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
     </row>
     <row r="33" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1544,18 +1544,18 @@
       <c r="R33" s="20"/>
       <c r="S33" s="4"/>
       <c r="T33" s="18"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
     </row>
     <row r="34" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
+      <c r="A34" s="29">
         <v>15</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -1570,16 +1570,16 @@
       <c r="R34" s="19"/>
       <c r="S34" s="4"/>
       <c r="T34" s="17"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
     </row>
     <row r="35" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="16"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1594,91 +1594,89 @@
       <c r="R35" s="20"/>
       <c r="S35" s="4"/>
       <c r="T35" s="18"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="10" t="s">
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="T40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E40" s="11" t="s">
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="T40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C43" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="Q43" s="10" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="Q43" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="V14:V15"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
@@ -1689,16 +1687,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1708,20 +1696,41 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G4:P4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="T8:T9"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="Q12:Q13"/>
@@ -1729,28 +1738,19 @@
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="V12:V13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="T20:T21"/>
     <mergeCell ref="U20:U21"/>
     <mergeCell ref="V20:V21"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
     <mergeCell ref="T22:T23"/>
     <mergeCell ref="U22:U23"/>
     <mergeCell ref="V22:V23"/>
@@ -1762,15 +1762,11 @@
     <mergeCell ref="U24:U25"/>
     <mergeCell ref="V24:V25"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
     <mergeCell ref="Q34:Q35"/>
     <mergeCell ref="R34:R35"/>
     <mergeCell ref="Q26:Q27"/>
@@ -1778,31 +1774,16 @@
     <mergeCell ref="T26:T27"/>
     <mergeCell ref="U26:U27"/>
     <mergeCell ref="V26:V27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
     <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="R28:R29"/>
     <mergeCell ref="T28:T29"/>
     <mergeCell ref="U28:U29"/>
     <mergeCell ref="V28:V29"/>
-    <mergeCell ref="D26:D27"/>
     <mergeCell ref="V32:V33"/>
     <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="R30:R31"/>
     <mergeCell ref="T30:T31"/>
     <mergeCell ref="U30:U31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="A42:G42"/>
     <mergeCell ref="C1:S1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="J2:R2"/>
@@ -1812,14 +1793,33 @@
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="N37:S37"/>
     <mergeCell ref="N39:S39"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="T34:T35"/>
     <mergeCell ref="U34:U35"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
